--- a/va_facility_data_2025-02-20/Pocomoke City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocomoke%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pocomoke City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocomoke%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R72930c58266a4c51a3dbd77267fe210f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2abd9d32fbcf4589b714da5e92fd7c90"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R84da469dd8a8410383811445486fb613"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R20b24ea1f37c4388a0c293583964286e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re7143b385a544dfa9ade70977a1ed4d9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R042b71c931d84a9fa3937833c1f9a875"/>
   </x:sheets>
 </x:workbook>
 </file>
